--- a/shiny_app/data/pNP_substrate_key.xlsx
+++ b/shiny_app/data/pNP_substrate_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/University_of_Minnesota/Wackett_Lab/github/thiolase-machine-learning/shiny_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA03584-A699-F74A-9E72-61C489250080}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6785D1F6-69EB-6941-9111-B999BC2DA0D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33900" yWindow="2400" windowWidth="23840" windowHeight="12660" xr2:uid="{085690FB-1627-9644-ACF9-B31594A0BB4C}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="23840" windowHeight="12660" xr2:uid="{085690FB-1627-9644-ACF9-B31594A0BB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,9 +540,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA12C00-F96F-FE4D-B5F7-9DD528349FC5}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -575,89 +580,89 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>321.71248000000003</v>
+      </c>
+      <c r="E2">
+        <v>4.9832999999999998</v>
+      </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>365.40415999999999</v>
-      </c>
-      <c r="E2">
-        <v>1.30049999999999</v>
-      </c>
-      <c r="F2">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>243.21485999999999</v>
+        <v>339.30221999999998</v>
       </c>
       <c r="E3">
-        <v>3.90769999999999</v>
+        <v>4.2282999999999999</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3">
         <v>3</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>321.41127999999998</v>
+        <v>243.21485999999999</v>
       </c>
       <c r="E4">
-        <v>-0.19949999999999901</v>
+        <v>3.90769999999999</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -720,83 +725,83 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>247.24661999999901</v>
+        <v>265.30495999999999</v>
       </c>
       <c r="E7">
-        <v>2.5924999999999998</v>
+        <v>2.7583000000000002</v>
       </c>
       <c r="F7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>321.71248000000003</v>
+        <v>247.24661999999901</v>
       </c>
       <c r="E8">
-        <v>4.9832999999999998</v>
+        <v>2.5924999999999998</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>297.30376000000001</v>
+        <v>261.31626</v>
       </c>
       <c r="E9">
-        <v>1.3065</v>
+        <v>1.9559</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -807,25 +812,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>278.26396</v>
+        <v>237.2518</v>
       </c>
       <c r="E10">
-        <v>-1.20189999999999</v>
+        <v>1.5285</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -836,179 +841,182 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>265.30495999999999</v>
+        <v>297.30376000000001</v>
       </c>
       <c r="E11">
-        <v>2.7583000000000002</v>
+        <v>1.3065</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>339.30221999999998</v>
+        <v>365.40415999999999</v>
       </c>
       <c r="E12">
-        <v>4.2282999999999999</v>
+        <v>1.30049999999999</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>251.27838</v>
+      </c>
+      <c r="E13">
+        <v>1.2404999999999999</v>
+      </c>
+      <c r="F13">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>261.31626</v>
-      </c>
-      <c r="E13">
-        <v>1.9559</v>
-      </c>
-      <c r="F13">
-        <v>38</v>
-      </c>
       <c r="G13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>237.2518</v>
+        <v>293.35811999999999</v>
       </c>
       <c r="E14">
-        <v>1.5285</v>
+        <v>0.376500000000002</v>
       </c>
       <c r="F14">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>251.27838</v>
+        <v>321.41127999999998</v>
       </c>
       <c r="E15">
-        <v>1.2404999999999999</v>
+        <v>-0.19949999999999901</v>
       </c>
       <c r="F15">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>293.35811999999999</v>
+        <v>278.26396</v>
       </c>
       <c r="E16">
-        <v>0.376500000000002</v>
+        <v>-1.20189999999999</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I16">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>